--- a/data/trans_orig/P6702-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P6702-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>54034</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40856</v>
+        <v>41799</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>68429</v>
+        <v>70651</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1935404887423361</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1463404701014241</v>
+        <v>0.1497195646220989</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2451019975523788</v>
+        <v>0.2530610917395172</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -764,19 +764,19 @@
         <v>45279</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33944</v>
+        <v>34340</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58593</v>
+        <v>60416</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.203596028815538</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1526313229596342</v>
+        <v>0.1544109273518739</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2634620093486592</v>
+        <v>0.2716602791874099</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>91</v>
@@ -785,19 +785,19 @@
         <v>99313</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>82287</v>
+        <v>81949</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>120422</v>
+        <v>119310</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1979990005144585</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1640545633532975</v>
+        <v>0.163381521696611</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.240084823804448</v>
+        <v>0.2378673830763227</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>33204</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23557</v>
+        <v>23016</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>46496</v>
+        <v>45923</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1189308942499489</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08437887097700213</v>
+        <v>0.08244134459213978</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1665403766205386</v>
+        <v>0.1644884887603039</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -835,19 +835,19 @@
         <v>30968</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20662</v>
+        <v>21379</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>42833</v>
+        <v>43869</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.139247783682065</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09290504981787566</v>
+        <v>0.09613067439631018</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1926005630168264</v>
+        <v>0.1972581455760321</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>58</v>
@@ -856,19 +856,19 @@
         <v>64172</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>50089</v>
+        <v>49798</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>80689</v>
+        <v>81480</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1279391712839595</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09986205655236899</v>
+        <v>0.09928132081495139</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1608697328964853</v>
+        <v>0.1624468639697444</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>88041</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>73687</v>
+        <v>72390</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>105365</v>
+        <v>104995</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3153498278232178</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2639347807675348</v>
+        <v>0.2592899362518558</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3774026524594483</v>
+        <v>0.3760757958861733</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>71</v>
@@ -906,19 +906,19 @@
         <v>75129</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>60425</v>
+        <v>62161</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>89814</v>
+        <v>89869</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3378185106814786</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2717005687220858</v>
+        <v>0.2795053491047047</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4038487157850086</v>
+        <v>0.4040963956837563</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>155</v>
@@ -927,19 +927,19 @@
         <v>163170</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>142935</v>
+        <v>141788</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>184188</v>
+        <v>185308</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3253121855184163</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2849686550867782</v>
+        <v>0.2826823272602228</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3672151431121506</v>
+        <v>0.3694486436271844</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>52140</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40203</v>
+        <v>39656</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>68376</v>
+        <v>65162</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1867577359481155</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1440015274656001</v>
+        <v>0.1420431941344798</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2449139272291233</v>
+        <v>0.2333992519683043</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -977,19 +977,19 @@
         <v>35818</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25890</v>
+        <v>25326</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48589</v>
+        <v>47861</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1610555276376223</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1164147124469823</v>
+        <v>0.1138794839842695</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2184813262249556</v>
+        <v>0.2152079876506613</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>83</v>
@@ -998,19 +998,19 @@
         <v>87958</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>70956</v>
+        <v>71141</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>107273</v>
+        <v>106087</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1753616699499033</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1414650217562946</v>
+        <v>0.1418330812999881</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2138687826469029</v>
+        <v>0.2115048953670419</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>51767</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>39160</v>
+        <v>38933</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>66520</v>
+        <v>68411</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1854210532363818</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1402657296888595</v>
+        <v>0.1394517591632004</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2382645720654976</v>
+        <v>0.2450392356731672</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>31</v>
@@ -1048,19 +1048,19 @@
         <v>35201</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>24694</v>
+        <v>25016</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>48399</v>
+        <v>46379</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1582821491832962</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.111036502572174</v>
+        <v>0.112484537387707</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2176255656572739</v>
+        <v>0.2085423896375483</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>78</v>
@@ -1069,19 +1069,19 @@
         <v>86968</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>69777</v>
+        <v>70229</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>105706</v>
+        <v>107881</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1733879727332623</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1391138927755331</v>
+        <v>0.140015024540963</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2107456273134109</v>
+        <v>0.2150819558736302</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>68206</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53746</v>
+        <v>53715</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>84006</v>
+        <v>84903</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1785144217411483</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.140668770604506</v>
+        <v>0.1405879851759288</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2198685310339857</v>
+        <v>0.2222166114306502</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>64</v>
@@ -1194,19 +1194,19 @@
         <v>68068</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54380</v>
+        <v>53302</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>85056</v>
+        <v>83964</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2665599841100827</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2129591878384501</v>
+        <v>0.2087374704290466</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3330874212270142</v>
+        <v>0.328810191879328</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>133</v>
@@ -1215,19 +1215,19 @@
         <v>136273</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>115069</v>
+        <v>115350</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>157294</v>
+        <v>157629</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2137856839966009</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1805201727175857</v>
+        <v>0.1809617966130519</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2467630401983772</v>
+        <v>0.2472891611044242</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>50607</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>38066</v>
+        <v>38714</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>65861</v>
+        <v>66292</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1324545744924523</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09962918550097649</v>
+        <v>0.1013268273948781</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1723776172095809</v>
+        <v>0.1735049788312515</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>34</v>
@@ -1265,19 +1265,19 @@
         <v>38955</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26818</v>
+        <v>27867</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>52913</v>
+        <v>51659</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1525522351753551</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1050223978471934</v>
+        <v>0.1091316664784726</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2072125084535637</v>
+        <v>0.2023006697459709</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>82</v>
@@ -1286,19 +1286,19 @@
         <v>89562</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>72743</v>
+        <v>73543</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>108298</v>
+        <v>110796</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1405057452907875</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.114119626935529</v>
+        <v>0.1153742461665965</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1698984809680823</v>
+        <v>0.1738176076250228</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>135597</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>115371</v>
+        <v>117005</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>153299</v>
+        <v>154055</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3548991504938848</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3019610060628302</v>
+        <v>0.3062381251519329</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4012290798540557</v>
+        <v>0.4032084433380344</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>62</v>
@@ -1336,19 +1336,19 @@
         <v>67324</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>53623</v>
+        <v>53285</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>82895</v>
+        <v>83614</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.263648405764252</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2099923989310431</v>
+        <v>0.2086712125633385</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3246268559266276</v>
+        <v>0.3274416917265649</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>193</v>
@@ -1357,19 +1357,19 @@
         <v>202922</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>178566</v>
+        <v>179563</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>228243</v>
+        <v>230278</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3183438845410393</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2801349159043495</v>
+        <v>0.2816980517359293</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3580679587240191</v>
+        <v>0.3612612339832183</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>87986</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>71762</v>
+        <v>72896</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>105208</v>
+        <v>105963</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2302858360071671</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1878231171913427</v>
+        <v>0.1907912082052971</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2753608174963062</v>
+        <v>0.27733626677194</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -1407,19 +1407,19 @@
         <v>56242</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42310</v>
+        <v>42520</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70918</v>
+        <v>71201</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.220250035843426</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1656908211908528</v>
+        <v>0.166512720014607</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2777239455849512</v>
+        <v>0.2788287460307678</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>134</v>
@@ -1428,19 +1428,19 @@
         <v>144228</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>124214</v>
+        <v>118474</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>166888</v>
+        <v>165189</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2262654705282645</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1948672479177885</v>
+        <v>0.1858617734835197</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2618142407663137</v>
+        <v>0.2591486569198833</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>39677</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>28780</v>
+        <v>27842</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>55045</v>
+        <v>54261</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1038460172653476</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07532542643533459</v>
+        <v>0.07287204617110617</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1440699783871207</v>
+        <v>0.1420173013011612</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>24</v>
@@ -1478,19 +1478,19 @@
         <v>24767</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16462</v>
+        <v>15846</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35854</v>
+        <v>35317</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09698933910688423</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06446740900199019</v>
+        <v>0.06205485436253901</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1404069494755127</v>
+        <v>0.138304225371688</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>60</v>
@@ -1499,19 +1499,19 @@
         <v>64444</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>50701</v>
+        <v>50421</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>81198</v>
+        <v>80331</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1010992156433078</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07953931215944814</v>
+        <v>0.07910057819809466</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1273839882802986</v>
+        <v>0.1260240605029154</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>61691</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>48420</v>
+        <v>48933</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>78164</v>
+        <v>80304</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1360047035395235</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1067464164631863</v>
+        <v>0.1078793888246033</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1723216602515114</v>
+        <v>0.1770395577679228</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>50</v>
@@ -1624,19 +1624,19 @@
         <v>54302</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>42107</v>
+        <v>41754</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>68930</v>
+        <v>68760</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1957101762263616</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1517564761978823</v>
+        <v>0.1504841617093307</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2484291573915489</v>
+        <v>0.2478180818268816</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>108</v>
@@ -1645,19 +1645,19 @@
         <v>115993</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>95622</v>
+        <v>97272</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>136405</v>
+        <v>139756</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1586650838050387</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1308005112845229</v>
+        <v>0.1330564509007684</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1865863086886512</v>
+        <v>0.1911700046845187</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>78317</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>62056</v>
+        <v>61323</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>95783</v>
+        <v>95341</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1726597112064747</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1368101315971947</v>
+        <v>0.135192630082226</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2111653934287116</v>
+        <v>0.210190449436394</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>47</v>
@@ -1695,19 +1695,19 @@
         <v>47614</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>35621</v>
+        <v>35959</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>60789</v>
+        <v>60799</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.171606479063708</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1283808547507551</v>
+        <v>0.1296005548704109</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2190910135251203</v>
+        <v>0.2191261575698318</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>120</v>
@@ -1716,19 +1716,19 @@
         <v>125932</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>105379</v>
+        <v>106299</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>151102</v>
+        <v>149068</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1722599716216608</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1441465236279572</v>
+        <v>0.1454048050336963</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2066899787110288</v>
+        <v>0.203907685656578</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>150289</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>129219</v>
+        <v>130062</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>170867</v>
+        <v>172843</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3313300075015647</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2848777218504882</v>
+        <v>0.2867375170123361</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3766954420380247</v>
+        <v>0.3810530163416403</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>90</v>
@@ -1766,19 +1766,19 @@
         <v>95418</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>80171</v>
+        <v>79356</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>111468</v>
+        <v>110870</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.343895819467904</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2889446700130039</v>
+        <v>0.2860084368627802</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4017414941684207</v>
+        <v>0.3995854508015093</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>233</v>
@@ -1787,19 +1787,19 @@
         <v>245707</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>219326</v>
+        <v>219087</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>271244</v>
+        <v>273430</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3360991863504741</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3000121158912053</v>
+        <v>0.2996849993981837</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3710306582720214</v>
+        <v>0.3740208584291166</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>101771</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>84662</v>
+        <v>82937</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>120001</v>
+        <v>118774</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2243658299734266</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1866461155051705</v>
+        <v>0.1828443768554353</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2645566331983752</v>
+        <v>0.2618510366082572</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>47</v>
@@ -1837,19 +1837,19 @@
         <v>49688</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>38084</v>
+        <v>37080</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>62608</v>
+        <v>63296</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1790803514567441</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1372582989449922</v>
+        <v>0.1336388413175151</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2256460689857574</v>
+        <v>0.2281235459230431</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>147</v>
@@ -1858,19 +1858,19 @@
         <v>151459</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>129911</v>
+        <v>129978</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>174960</v>
+        <v>173287</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2071783575774487</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1777032812958359</v>
+        <v>0.1777951749454539</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2393254709667978</v>
+        <v>0.2370360385265609</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>61525</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>48031</v>
+        <v>46393</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>79467</v>
+        <v>79466</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1356397477790105</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1058905519611629</v>
+        <v>0.1022785163888301</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1751944599764577</v>
+        <v>0.1751909968218942</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -1908,19 +1908,19 @@
         <v>30440</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>21018</v>
+        <v>20897</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>42769</v>
+        <v>41703</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1097071737852824</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0757526252636402</v>
+        <v>0.07531620539325717</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1541445648753644</v>
+        <v>0.1503009755250207</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>83</v>
@@ -1929,19 +1929,19 @@
         <v>91965</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>73355</v>
+        <v>72883</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>112785</v>
+        <v>112055</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1257974006453778</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1003405011896116</v>
+        <v>0.0996956610999792</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1542766303831536</v>
+        <v>0.1532778504029874</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>61553</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>48896</v>
+        <v>47460</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>79514</v>
+        <v>79311</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2076898009116454</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1649846332849552</v>
+        <v>0.1601373070651094</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2682927360468266</v>
+        <v>0.2676094463410342</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>39</v>
@@ -2054,19 +2054,19 @@
         <v>43445</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>32359</v>
+        <v>31444</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>57062</v>
+        <v>57233</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2329064048303006</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1734740843551249</v>
+        <v>0.1685689208564971</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3059031889669713</v>
+        <v>0.3068217986321924</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>92</v>
@@ -2075,19 +2075,19 @@
         <v>104998</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>87566</v>
+        <v>87054</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>126084</v>
+        <v>127171</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2174304302330355</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1813319624538595</v>
+        <v>0.1802717498193878</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2610945369844259</v>
+        <v>0.2633449509635122</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>46557</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>33981</v>
+        <v>34013</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>60280</v>
+        <v>61224</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1570927795526096</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1146589347242403</v>
+        <v>0.1147646647014871</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2033954924976586</v>
+        <v>0.2065803351178362</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>30</v>
@@ -2125,19 +2125,19 @@
         <v>33187</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>23233</v>
+        <v>22781</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>45619</v>
+        <v>45314</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1779115362273599</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1245519225502639</v>
+        <v>0.1221269117935689</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2445571204183683</v>
+        <v>0.2429219127680433</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>71</v>
@@ -2146,19 +2146,19 @@
         <v>79744</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>63605</v>
+        <v>63713</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>99524</v>
+        <v>100862</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1651346154935286</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.131712734373837</v>
+        <v>0.1319366828533496</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2060945487606148</v>
+        <v>0.2088654050364003</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>111408</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>94063</v>
+        <v>96229</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>130200</v>
+        <v>127110</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3759107284978921</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3173848175726686</v>
+        <v>0.3246916029616415</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4393157409255813</v>
+        <v>0.4288917067466529</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>65</v>
@@ -2196,19 +2196,19 @@
         <v>70374</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>56731</v>
+        <v>57388</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>83811</v>
+        <v>84122</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.377267611717534</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3041264279521403</v>
+        <v>0.3076530597299652</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4493024208323491</v>
+        <v>0.4509681700651086</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>166</v>
@@ -2217,19 +2217,19 @@
         <v>181782</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>158527</v>
+        <v>158700</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>204244</v>
+        <v>203931</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3764348631719181</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3282767892821148</v>
+        <v>0.3286370794111627</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4229484035009923</v>
+        <v>0.4223013971693134</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>51543</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>37936</v>
+        <v>39523</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>65845</v>
+        <v>65852</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1739141124841485</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1280034360426775</v>
+        <v>0.1333575177142381</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2221714270008419</v>
+        <v>0.2221961726707285</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>23</v>
@@ -2267,19 +2267,19 @@
         <v>26716</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17393</v>
+        <v>17122</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>38148</v>
+        <v>38593</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1432221406763265</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09324104129781913</v>
+        <v>0.09178685119509154</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.204506635604997</v>
+        <v>0.2068927743984511</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>72</v>
@@ -2288,19 +2288,19 @@
         <v>78259</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>61211</v>
+        <v>62884</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>93786</v>
+        <v>96972</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1620584668354741</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1267559357249066</v>
+        <v>0.1302209242164791</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1942128063615277</v>
+        <v>0.2008093798012819</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>25308</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>16460</v>
+        <v>16847</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>37407</v>
+        <v>36941</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08539257855370436</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05553769181787617</v>
+        <v>0.0568451654870813</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1262166357931351</v>
+        <v>0.1246451844095591</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -2338,19 +2338,19 @@
         <v>12814</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7181</v>
+        <v>7006</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>21706</v>
+        <v>21716</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06869230654847895</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03849790175418469</v>
+        <v>0.03755609412237485</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1163631499691164</v>
+        <v>0.116415010053324</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>37</v>
@@ -2359,19 +2359,19 @@
         <v>38121</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>27019</v>
+        <v>26968</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>52051</v>
+        <v>51213</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0789416242660437</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05595052282251838</v>
+        <v>0.05584533763088304</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1077873771343485</v>
+        <v>0.1060528746272463</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>245483</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>217461</v>
+        <v>216028</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>277115</v>
+        <v>275137</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.173950710154689</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1540938213585761</v>
+        <v>0.1530786974250495</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1963650374926934</v>
+        <v>0.1949637844494555</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>194</v>
@@ -2484,19 +2484,19 @@
         <v>211094</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>186009</v>
+        <v>185652</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>240129</v>
+        <v>239366</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2241509871668721</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1975151457796614</v>
+        <v>0.1971359509226252</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2549820285090268</v>
+        <v>0.2541719172468583</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>424</v>
@@ -2505,19 +2505,19 @@
         <v>456577</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>419004</v>
+        <v>414184</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>495334</v>
+        <v>496647</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1940427758582329</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1780745515467925</v>
+        <v>0.1760258649961524</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2105144323947275</v>
+        <v>0.2110724736244841</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>208686</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>178726</v>
+        <v>178637</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>235634</v>
+        <v>238407</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1478760982791829</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1266461461926865</v>
+        <v>0.1265833369498134</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1669715436374462</v>
+        <v>0.1689362181886293</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>139</v>
@@ -2555,19 +2555,19 @@
         <v>150724</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>127559</v>
+        <v>127545</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>175413</v>
+        <v>174807</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1600472300464129</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1354492457543827</v>
+        <v>0.1354344474135495</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1862629086235826</v>
+        <v>0.1856194857464588</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>331</v>
@@ -2576,19 +2576,19 @@
         <v>359410</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>320919</v>
+        <v>323246</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>393577</v>
+        <v>399713</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1527474494690245</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1363887145399003</v>
+        <v>0.1373776912367845</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.16726811307192</v>
+        <v>0.1698759674222712</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>485336</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>452226</v>
+        <v>448796</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>523315</v>
+        <v>523975</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3439120507774132</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3204499358657432</v>
+        <v>0.3180192581100513</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3708237879195912</v>
+        <v>0.3712917155015159</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>288</v>
@@ -2626,19 +2626,19 @@
         <v>308245</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>281334</v>
+        <v>281494</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>336325</v>
+        <v>340839</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3273116062895887</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2987363877023028</v>
+        <v>0.298905643754502</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3571284560960355</v>
+        <v>0.3619212393041458</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>747</v>
@@ -2647,19 +2647,19 @@
         <v>793581</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>748758</v>
+        <v>746299</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>840280</v>
+        <v>845552</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3372679196847411</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3182180746213752</v>
+        <v>0.3171734006480647</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3571145712637712</v>
+        <v>0.359355274634823</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>293440</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>265070</v>
+        <v>263847</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>325251</v>
+        <v>328237</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2079332006336263</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.187829934352045</v>
+        <v>0.1869637234064259</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2304745316117912</v>
+        <v>0.2325905764961681</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>153</v>
@@ -2697,19 +2697,19 @@
         <v>168464</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>145797</v>
+        <v>143736</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>197127</v>
+        <v>195125</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1788843752042457</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1548151499050712</v>
+        <v>0.1526271258452199</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2093199799312793</v>
+        <v>0.2071940310282059</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>436</v>
@@ -2718,19 +2718,19 @@
         <v>461904</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>424790</v>
+        <v>425663</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>506180</v>
+        <v>501936</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1963067526561332</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.180533419286235</v>
+        <v>0.1809043850686887</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2151240369837359</v>
+        <v>0.2133201364073088</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>178277</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>150022</v>
+        <v>153049</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>206843</v>
+        <v>206738</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1263279401550885</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1063062842188391</v>
+        <v>0.1084513147817325</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1465704180821974</v>
+        <v>0.1464960001233721</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>95</v>
@@ -2768,19 +2768,19 @@
         <v>103221</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>84130</v>
+        <v>83639</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>123768</v>
+        <v>124278</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1096058012928805</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08933363393402632</v>
+        <v>0.08881281953228549</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1314238303039664</v>
+        <v>0.1319657675783195</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>258</v>
@@ -2789,19 +2789,19 @@
         <v>281498</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>255439</v>
+        <v>248994</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>318567</v>
+        <v>315114</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1196351023318683</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1085603209989695</v>
+        <v>0.1058210316406546</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.135389487563087</v>
+        <v>0.1339217597103739</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>34166</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23300</v>
+        <v>24490</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46733</v>
+        <v>47397</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1163763083560006</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07936541414701057</v>
+        <v>0.08341823267562251</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1591844480653139</v>
+        <v>0.1614468036457175</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -3154,19 +3154,19 @@
         <v>51771</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37977</v>
+        <v>39244</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>65005</v>
+        <v>65979</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1867446037641034</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1369853879199524</v>
+        <v>0.1415556628859843</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2344797264983776</v>
+        <v>0.2379934587809993</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>80</v>
@@ -3175,19 +3175,19 @@
         <v>85937</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>70056</v>
+        <v>69697</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>106951</v>
+        <v>105951</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.150552823748431</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1227317479605761</v>
+        <v>0.1221017329379574</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1873681889538954</v>
+        <v>0.185615604425071</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>44588</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32276</v>
+        <v>32363</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>59851</v>
+        <v>58654</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1518764454965909</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1099397442473049</v>
+        <v>0.1102368366070539</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.203868516995809</v>
+        <v>0.1997903460169687</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>32</v>
@@ -3225,19 +3225,19 @@
         <v>32723</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22603</v>
+        <v>22753</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45447</v>
+        <v>45031</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1180350679911944</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08153145909540799</v>
+        <v>0.08207119670704142</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1639309677883524</v>
+        <v>0.1624299163440354</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>70</v>
@@ -3246,19 +3246,19 @@
         <v>77311</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>61344</v>
+        <v>61149</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>96109</v>
+        <v>95178</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1354403452257713</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1074684338414028</v>
+        <v>0.1071260444296093</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1683740222243307</v>
+        <v>0.1667423436921698</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>95279</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>77152</v>
+        <v>80283</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>112099</v>
+        <v>111635</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3245451534663754</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2627985516982873</v>
+        <v>0.2734634690529205</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3818364829624608</v>
+        <v>0.3802559030924334</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>108</v>
@@ -3296,19 +3296,19 @@
         <v>108438</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>92553</v>
+        <v>93469</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>125198</v>
+        <v>125662</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3911482588905241</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3338477937476482</v>
+        <v>0.3371506131173608</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4516032126555196</v>
+        <v>0.4532767981702072</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>199</v>
@@ -3317,19 +3317,19 @@
         <v>203718</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>179039</v>
+        <v>181869</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>226403</v>
+        <v>225429</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3568929891573047</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3136575833925678</v>
+        <v>0.3186168880724135</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3966354303077998</v>
+        <v>0.3949286912321501</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>80335</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>64864</v>
+        <v>64359</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>97713</v>
+        <v>96489</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2736418642462285</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2209422573767138</v>
+        <v>0.2192224457651726</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3328347703967967</v>
+        <v>0.3286652877798827</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>55</v>
@@ -3367,19 +3367,19 @@
         <v>58017</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46219</v>
+        <v>45807</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>73793</v>
+        <v>73026</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2092723571055074</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1667159297902139</v>
+        <v>0.1652292613486368</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.266178847528852</v>
+        <v>0.2634110244046001</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>128</v>
@@ -3388,19 +3388,19 @@
         <v>138352</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>117553</v>
+        <v>118424</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>161698</v>
+        <v>160408</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2423788438925382</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2059402825969475</v>
+        <v>0.2074669114269753</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2832781523743562</v>
+        <v>0.2810182463718886</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>39210</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>28122</v>
+        <v>28799</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>52680</v>
+        <v>51198</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1335602284348046</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0957904438957545</v>
+        <v>0.09809754504772976</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1794412542943251</v>
+        <v>0.1743937663621157</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>26</v>
@@ -3438,19 +3438,19 @@
         <v>26281</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17997</v>
+        <v>18110</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>38182</v>
+        <v>37225</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09479971224867076</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06491559964249934</v>
+        <v>0.06532329564994079</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1377259337268063</v>
+        <v>0.1342744927919137</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>62</v>
@@ -3459,19 +3459,19 @@
         <v>65492</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>52099</v>
+        <v>51962</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>82926</v>
+        <v>82769</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1147349979759549</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09127211941112014</v>
+        <v>0.09103145368091287</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1452781992622167</v>
+        <v>0.1450032282263146</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>47934</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35669</v>
+        <v>35970</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>62447</v>
+        <v>61838</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.122757828793652</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09134920798861752</v>
+        <v>0.09211942513328035</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1599250296409795</v>
+        <v>0.1583676806636098</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -3584,19 +3584,19 @@
         <v>47130</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35486</v>
+        <v>35649</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>62229</v>
+        <v>59657</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1745229605248171</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1314022720084769</v>
+        <v>0.1320069960479072</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2304331747517213</v>
+        <v>0.2209067204627307</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>89</v>
@@ -3605,19 +3605,19 @@
         <v>95064</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>76758</v>
+        <v>78192</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>114062</v>
+        <v>113373</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1439217068209228</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1162073730014653</v>
+        <v>0.1183782837673163</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1726832502846462</v>
+        <v>0.1716400732553095</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>66565</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>53102</v>
+        <v>52705</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>83786</v>
+        <v>81822</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.170473338762376</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1359925668535345</v>
+        <v>0.1349770687798206</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2145748099022275</v>
+        <v>0.2095442964024938</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>45</v>
@@ -3655,19 +3655,19 @@
         <v>44747</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>32188</v>
+        <v>32968</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>56748</v>
+        <v>58285</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1656970645689849</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1191915078883736</v>
+        <v>0.1220798311759178</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2101371406120725</v>
+        <v>0.2158281703535271</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>109</v>
@@ -3676,19 +3676,19 @@
         <v>111312</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>91254</v>
+        <v>93747</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>131921</v>
+        <v>131081</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1685205863772628</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.138152952721101</v>
+        <v>0.1419281638586009</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1997205147889342</v>
+        <v>0.1984489175068425</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>136461</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>118693</v>
+        <v>116730</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>155716</v>
+        <v>155208</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3494765123907964</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3039707869168102</v>
+        <v>0.2989454793747485</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3987878937934001</v>
+        <v>0.3974872872302334</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>83</v>
@@ -3726,19 +3726,19 @@
         <v>84832</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>69340</v>
+        <v>70902</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>100065</v>
+        <v>102104</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3141301292316979</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2567628675554023</v>
+        <v>0.2625499067015431</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3705398194451596</v>
+        <v>0.3780884890675434</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>213</v>
@@ -3747,19 +3747,19 @@
         <v>221293</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>197367</v>
+        <v>198654</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>247635</v>
+        <v>247315</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3350253458069014</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2988028337079296</v>
+        <v>0.3007509077899376</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3749053226396328</v>
+        <v>0.3744207039501833</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>92675</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>76308</v>
+        <v>75757</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>111886</v>
+        <v>108664</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2373408233585128</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1954249020115491</v>
+        <v>0.1940119772073413</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2865393699129299</v>
+        <v>0.2782877468894173</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>63</v>
@@ -3797,19 +3797,19 @@
         <v>65520</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51411</v>
+        <v>51839</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>79519</v>
+        <v>81205</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2426204855693988</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1903750060806933</v>
+        <v>0.1919601840878964</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2944572677827754</v>
+        <v>0.300700663033389</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>151</v>
@@ -3818,19 +3818,19 @@
         <v>158196</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>137326</v>
+        <v>138542</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>182259</v>
+        <v>180616</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2394993830553504</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2079040908947374</v>
+        <v>0.2097442659919198</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2759300034027274</v>
+        <v>0.2734426859407441</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>46838</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>35565</v>
+        <v>34959</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>60999</v>
+        <v>60612</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1199514966946628</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09108091125497503</v>
+        <v>0.08952982870994397</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.156217506819695</v>
+        <v>0.1552267481920752</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>27</v>
@@ -3868,19 +3868,19 @@
         <v>27823</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18898</v>
+        <v>19308</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>38191</v>
+        <v>39561</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1030293601051013</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06998006794067538</v>
+        <v>0.07149885209320048</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1414205646960112</v>
+        <v>0.1464948397853106</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>72</v>
@@ -3889,19 +3889,19 @@
         <v>74661</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>59288</v>
+        <v>59315</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>91305</v>
+        <v>91362</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1130329779395627</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.089757972569286</v>
+        <v>0.08979956851106488</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1382306230653711</v>
+        <v>0.1383168071556147</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>82706</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>67477</v>
+        <v>66041</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>100461</v>
+        <v>99478</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1812988942087779</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1479157266278532</v>
+        <v>0.1447680824105541</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2202193219977961</v>
+        <v>0.218063221072354</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>40</v>
@@ -4014,19 +4014,19 @@
         <v>39212</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29402</v>
+        <v>28435</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>51375</v>
+        <v>52109</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1349191161515575</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1011649276233037</v>
+        <v>0.09783607887815739</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1767695983681803</v>
+        <v>0.1792920932727316</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>114</v>
@@ -4035,19 +4035,19 @@
         <v>121919</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>101266</v>
+        <v>101121</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>144331</v>
+        <v>145196</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.163249660372195</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1355949138730259</v>
+        <v>0.1354016826548128</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1932601768641663</v>
+        <v>0.1944177305516326</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>86440</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>70150</v>
+        <v>69974</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>103306</v>
+        <v>105289</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1894842401884</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1537751400025226</v>
+        <v>0.1533881980099557</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2264552136834852</v>
+        <v>0.2308010447939622</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>63</v>
@@ -4085,19 +4085,19 @@
         <v>61975</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>47860</v>
+        <v>48938</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>75922</v>
+        <v>75453</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2132382555016064</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1646727946526627</v>
+        <v>0.1683826932422546</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2612282333737813</v>
+        <v>0.2596126645716716</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>145</v>
@@ -4106,19 +4106,19 @@
         <v>148415</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>127169</v>
+        <v>126516</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>168627</v>
+        <v>171173</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1987283934574579</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1702792310995578</v>
+        <v>0.1694053693004708</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2257921514825987</v>
+        <v>0.2292013542201731</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>148064</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>128257</v>
+        <v>129554</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>171750</v>
+        <v>169943</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3245681510251873</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2811503508128581</v>
+        <v>0.2839921670720287</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3764905430010776</v>
+        <v>0.3725291912445192</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>94</v>
@@ -4156,19 +4156,19 @@
         <v>93066</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>77336</v>
+        <v>78661</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>111298</v>
+        <v>109893</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.32021580075932</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2660921613847158</v>
+        <v>0.2706528442792452</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3829482925878928</v>
+        <v>0.3781126222853955</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>237</v>
@@ -4177,19 +4177,19 @@
         <v>241130</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>215694</v>
+        <v>216841</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>268772</v>
+        <v>268943</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.322874382943968</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2888151292939046</v>
+        <v>0.2903513829407795</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3598869376415518</v>
+        <v>0.3601151449690093</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>98951</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>83402</v>
+        <v>80812</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>119627</v>
+        <v>117257</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2169072949437274</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1828241067861913</v>
+        <v>0.1771466411215618</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2622315327556121</v>
+        <v>0.257036852842844</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -4227,19 +4227,19 @@
         <v>64661</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>52338</v>
+        <v>51999</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>79916</v>
+        <v>80062</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2224814746761873</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.180080172152725</v>
+        <v>0.1789146476757474</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2749711803644914</v>
+        <v>0.2754715114192198</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>154</v>
@@ -4248,19 +4248,19 @@
         <v>163612</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>140535</v>
+        <v>141456</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>187827</v>
+        <v>189852</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2190765522720868</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1881774099936765</v>
+        <v>0.1894096877232969</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2515007336127743</v>
+        <v>0.2542128503532042</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>40027</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>28947</v>
+        <v>27912</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>55421</v>
+        <v>51564</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08774141963390741</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06345498528289098</v>
+        <v>0.06118567707693746</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.121488148306857</v>
+        <v>0.1130324738333128</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>31</v>
@@ -4298,19 +4298,19 @@
         <v>31721</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>22881</v>
+        <v>22859</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>43491</v>
+        <v>43421</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1091453529113288</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07872642932982904</v>
+        <v>0.07865129379846041</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1496415060048658</v>
+        <v>0.1494004354649061</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>68</v>
@@ -4319,19 +4319,19 @@
         <v>71748</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>57872</v>
+        <v>56187</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>90545</v>
+        <v>89486</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0960710109542922</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07749067815598971</v>
+        <v>0.07523525336414888</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1212405903599449</v>
+        <v>0.1198214732861501</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>67071</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>53243</v>
+        <v>51681</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>83276</v>
+        <v>82508</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2437629498966417</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1935070586351646</v>
+        <v>0.1878278698694697</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3026589635196409</v>
+        <v>0.2998654084033261</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>61</v>
@@ -4444,19 +4444,19 @@
         <v>64197</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>52838</v>
+        <v>51741</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>78957</v>
+        <v>79020</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3308028591124412</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2722726833898053</v>
+        <v>0.2666178863522662</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4068622235865531</v>
+        <v>0.4071882456391059</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>121</v>
@@ -4465,19 +4465,19 @@
         <v>131268</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>111913</v>
+        <v>112888</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>151955</v>
+        <v>152814</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2797620615021459</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2385119180034535</v>
+        <v>0.240591523339121</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3238512511370242</v>
+        <v>0.3256815295442123</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>57451</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>44447</v>
+        <v>43146</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>71139</v>
+        <v>71716</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2087981085682646</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1615392333600041</v>
+        <v>0.1568091986876788</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2585471896676318</v>
+        <v>0.2606436744369488</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>32</v>
@@ -4515,19 +4515,19 @@
         <v>34104</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>24855</v>
+        <v>23544</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>45336</v>
+        <v>45244</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1757364210831939</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1280748938376223</v>
+        <v>0.1213204967776812</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2336160518673602</v>
+        <v>0.2331412733620504</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>85</v>
@@ -4536,19 +4536,19 @@
         <v>91555</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>75755</v>
+        <v>74358</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>111354</v>
+        <v>108057</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1951240205738654</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1614507624425278</v>
+        <v>0.1584731490009612</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2373215881267975</v>
+        <v>0.2302947484813796</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>94824</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>78961</v>
+        <v>78805</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>110425</v>
+        <v>111781</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3446282051940759</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2869762086154827</v>
+        <v>0.2864098800764597</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4013263253238948</v>
+        <v>0.4062564622995063</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>55</v>
@@ -4586,19 +4586,19 @@
         <v>57297</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>45804</v>
+        <v>44788</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>70919</v>
+        <v>70259</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2952485495193879</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2360282549973868</v>
+        <v>0.230790604560024</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3654424472970497</v>
+        <v>0.3620401033571393</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>140</v>
@@ -4607,19 +4607,19 @@
         <v>152121</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>131585</v>
+        <v>132162</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>176135</v>
+        <v>173111</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3242051170763348</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2804382274636169</v>
+        <v>0.2816678925075323</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3753846900720876</v>
+        <v>0.3689398299796939</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>35015</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>25095</v>
+        <v>25481</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>48692</v>
+        <v>47049</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1272574157184876</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09120534600783525</v>
+        <v>0.09260879857827539</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1769670916615917</v>
+        <v>0.1709930457854497</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>27</v>
@@ -4657,19 +4657,19 @@
         <v>28720</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20056</v>
+        <v>20086</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>41017</v>
+        <v>40932</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1479940030027181</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1033459399208278</v>
+        <v>0.1035047065320223</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2113593535168447</v>
+        <v>0.2109219634886521</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>59</v>
@@ -4678,19 +4678,19 @@
         <v>63735</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>49337</v>
+        <v>50240</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>80438</v>
+        <v>80440</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1358339265017364</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1051491195127891</v>
+        <v>0.1070733847254512</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1714322585914438</v>
+        <v>0.1714362405502043</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>20788</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>12690</v>
+        <v>12608</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>30951</v>
+        <v>30671</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07555332062253009</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04611936093320311</v>
+        <v>0.04582365055839177</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1124886701237655</v>
+        <v>0.1114710044193747</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -4728,19 +4728,19 @@
         <v>9745</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5099</v>
+        <v>4587</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18104</v>
+        <v>17818</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05021816728225888</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02627335552370562</v>
+        <v>0.02363477553580344</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09329026131573667</v>
+        <v>0.091815600169316</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>28</v>
@@ -4749,19 +4749,19 @@
         <v>30534</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20018</v>
+        <v>20349</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>42359</v>
+        <v>42735</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06507487434591755</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0426632330628255</v>
+        <v>0.04336891583676211</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09027662644941679</v>
+        <v>0.09107834213965126</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>231877</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>204891</v>
+        <v>202606</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>261695</v>
+        <v>260145</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1638254905968994</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1447590440851927</v>
+        <v>0.1431448085702778</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1848927028959863</v>
+        <v>0.1837974820195091</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>195</v>
@@ -4874,19 +4874,19 @@
         <v>202311</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>177111</v>
+        <v>178845</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>229011</v>
+        <v>227042</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1960408783179033</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1716223228568156</v>
+        <v>0.1733023812806761</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2219139842231718</v>
+        <v>0.220005796654822</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>404</v>
@@ -4895,19 +4895,19 @@
         <v>434188</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>395626</v>
+        <v>397264</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>475417</v>
+        <v>474372</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1774097317731381</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1616534344112567</v>
+        <v>0.1623226527787464</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1942560124404827</v>
+        <v>0.1938289719722972</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>255044</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>226475</v>
+        <v>226781</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>285402</v>
+        <v>286606</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1801935904332382</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1600089151338494</v>
+        <v>0.1602251239005209</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2016422710772307</v>
+        <v>0.2024929520625375</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>172</v>
@@ -4945,19 +4945,19 @@
         <v>173548</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>152728</v>
+        <v>149579</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>200184</v>
+        <v>197677</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1681700114328585</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1479945270154294</v>
+        <v>0.1449430227301366</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1939805325433004</v>
+        <v>0.1915512375501022</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>409</v>
@@ -4966,19 +4966,19 @@
         <v>428593</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>385459</v>
+        <v>391575</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>466176</v>
+        <v>466298</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1751236158497498</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1574991514119434</v>
+        <v>0.1599980562540006</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1904801234699832</v>
+        <v>0.1905300719669279</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>474629</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>441562</v>
+        <v>443119</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>513237</v>
+        <v>517091</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3353346749099354</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3119721462215168</v>
+        <v>0.3130722779615281</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.362611678191652</v>
+        <v>0.3653345944238139</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>340</v>
@@ -5016,19 +5016,19 @@
         <v>343633</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>314818</v>
+        <v>313812</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>377119</v>
+        <v>372314</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3329834617943147</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3050612312652382</v>
+        <v>0.3040867047903057</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.365431958003904</v>
+        <v>0.3607754583568744</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>789</v>
@@ -5037,19 +5037,19 @@
         <v>818262</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>772050</v>
+        <v>772234</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>867423</v>
+        <v>865627</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3343432404347109</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.315460777493844</v>
+        <v>0.3155359660025644</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3544304204651596</v>
+        <v>0.3536966359005568</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>306976</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>273790</v>
+        <v>278843</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>338634</v>
+        <v>342743</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2168844666229804</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1934375142483115</v>
+        <v>0.1970078147977807</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.239251066864608</v>
+        <v>0.242154422615969</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>208</v>
@@ -5087,19 +5087,19 @@
         <v>216918</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>192019</v>
+        <v>190375</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>245123</v>
+        <v>243686</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2101957463130285</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1860685901787947</v>
+        <v>0.1844749862284905</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2375268603338174</v>
+        <v>0.2361335751837788</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>492</v>
@@ -5108,19 +5108,19 @@
         <v>523894</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>482988</v>
+        <v>484829</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>568286</v>
+        <v>567354</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2140640383655998</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1973494898912293</v>
+        <v>0.1981018734153985</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2322025666816507</v>
+        <v>0.2318218514957166</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>146863</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>124247</v>
+        <v>123249</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>172316</v>
+        <v>169370</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1037617774369465</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08778307952662326</v>
+        <v>0.08707810220510834</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1217445398321978</v>
+        <v>0.1196628864585064</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>93</v>
@@ -5158,19 +5158,19 @@
         <v>95572</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>76796</v>
+        <v>78182</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>114945</v>
+        <v>115347</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09260990214189495</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07441581647929542</v>
+        <v>0.07575865959039262</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1113831938531421</v>
+        <v>0.1117723509290361</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>230</v>
@@ -5179,19 +5179,19 @@
         <v>242435</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>212533</v>
+        <v>214240</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>274763</v>
+        <v>274220</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09905937357680146</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08684141565235101</v>
+        <v>0.08753893270396944</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1122685959136346</v>
+        <v>0.1120467572839501</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>6567</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2221</v>
+        <v>2172</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13896</v>
+        <v>13793</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1699472700540675</v>
+        <v>0.1699472700540674</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05747074702561575</v>
+        <v>0.05620703316051101</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3596365931905933</v>
+        <v>0.3569748454097739</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -5544,19 +5544,19 @@
         <v>7947</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3762</v>
+        <v>3686</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13990</v>
+        <v>13679</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2051168834579998</v>
+        <v>0.2051168834579997</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09710693213131762</v>
+        <v>0.09514640900297949</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3610870981935327</v>
+        <v>0.3530753879027324</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -5565,19 +5565,19 @@
         <v>14513</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8309</v>
+        <v>8367</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23787</v>
+        <v>23989</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1875556810692093</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1073826138779684</v>
+        <v>0.1081302619020182</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.307394088974119</v>
+        <v>0.3100139440014687</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>4622</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1167</v>
+        <v>1251</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12986</v>
+        <v>13903</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1196233987126633</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03021035071651763</v>
+        <v>0.03237381900740016</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3360745024639855</v>
+        <v>0.3598154204004302</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -5615,19 +5615,19 @@
         <v>6250</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2529</v>
+        <v>2434</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12818</v>
+        <v>12095</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1613218912711791</v>
+        <v>0.161321891271179</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06526774269576799</v>
+        <v>0.06281816841708625</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3308485294694498</v>
+        <v>0.3121760126538715</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -5636,19 +5636,19 @@
         <v>10872</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5743</v>
+        <v>5283</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19780</v>
+        <v>19427</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1405006312045076</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07421961879516104</v>
+        <v>0.06827103449538696</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2556148353233273</v>
+        <v>0.2510590864635912</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>12686</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5858</v>
+        <v>5554</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22652</v>
+        <v>22888</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3283315820188504</v>
+        <v>0.3283315820188502</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1516170390084546</v>
+        <v>0.1437372888825835</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.586254945746943</v>
+        <v>0.5923517363733869</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -5686,19 +5686,19 @@
         <v>10419</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5960</v>
+        <v>5701</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16416</v>
+        <v>15442</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2689179946923201</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1538272523544719</v>
+        <v>0.147144779132262</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4237227197711299</v>
+        <v>0.3985659781334846</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>20</v>
@@ -5707,19 +5707,19 @@
         <v>23105</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14622</v>
+        <v>14798</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>37073</v>
+        <v>35412</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2985849125427338</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1889594879477209</v>
+        <v>0.191232308034204</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4790964110026429</v>
+        <v>0.4576245007074747</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>11807</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6021</v>
+        <v>6031</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19670</v>
+        <v>20179</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3055667528553359</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1558211474570988</v>
+        <v>0.1560880787496465</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5090598902903206</v>
+        <v>0.5222404767216319</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -5757,19 +5757,19 @@
         <v>10764</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6795</v>
+        <v>6312</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16263</v>
+        <v>16903</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2778333092625987</v>
+        <v>0.2778333092625986</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.175392920494449</v>
+        <v>0.1629222675817727</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4197598083858139</v>
+        <v>0.4362890170255821</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -5778,19 +5778,19 @@
         <v>22571</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14222</v>
+        <v>14104</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31019</v>
+        <v>31177</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2916814175791861</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1837933344640741</v>
+        <v>0.1822695317334361</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4008536859949766</v>
+        <v>0.402890896861398</v>
       </c>
     </row>
     <row r="8">
@@ -5810,16 +5810,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9637</v>
+        <v>10390</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.07653099635908309</v>
+        <v>0.07653099635908306</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2494185186725374</v>
+        <v>0.2689102511322766</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -5828,19 +5828,19 @@
         <v>3363</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1084</v>
+        <v>891</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7955</v>
+        <v>7656</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.08680992131590237</v>
+        <v>0.08680992131590234</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02796917667000307</v>
+        <v>0.0229922618939057</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2053151030739401</v>
+        <v>0.1976220719264677</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -5849,19 +5849,19 @@
         <v>6320</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2639</v>
+        <v>2046</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14109</v>
+        <v>13903</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.08167735760436294</v>
+        <v>0.08167735760436295</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03409900956556747</v>
+        <v>0.02644019461799344</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1823239584419076</v>
+        <v>0.1796695143001565</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>14397</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8044</v>
+        <v>8265</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22098</v>
+        <v>23633</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1232205844726524</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06884529782985388</v>
+        <v>0.07073353451507974</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1891231934155882</v>
+        <v>0.2022680846977322</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -5974,19 +5974,19 @@
         <v>14055</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8635</v>
+        <v>8376</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21893</v>
+        <v>22388</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1456807412836889</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08950905054212044</v>
+        <v>0.0868195970073624</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2269306544415028</v>
+        <v>0.2320579277315722</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -5995,19 +5995,19 @@
         <v>28452</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20191</v>
+        <v>19835</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39835</v>
+        <v>39987</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1333784787585942</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09465334191885695</v>
+        <v>0.09298593834502492</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1867388860749566</v>
+        <v>0.1874542354543566</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>11299</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5306</v>
+        <v>4787</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23058</v>
+        <v>22031</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09670047037658056</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04541457302337101</v>
+        <v>0.04097327078531718</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1973424714957857</v>
+        <v>0.1885521225747772</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -6045,19 +6045,19 @@
         <v>13871</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8401</v>
+        <v>8493</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21047</v>
+        <v>22119</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1437745133572679</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08708150424145135</v>
+        <v>0.08802831668894215</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2181647822040945</v>
+        <v>0.2292756987710246</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>24</v>
@@ -6066,19 +6066,19 @@
         <v>25169</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>16345</v>
+        <v>16102</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>37685</v>
+        <v>38027</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1179903107028394</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07662277571138694</v>
+        <v>0.07548404791952454</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1766629154304424</v>
+        <v>0.1782662558626803</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>46908</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>35968</v>
+        <v>34468</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>60603</v>
+        <v>59998</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4014624239075184</v>
+        <v>0.4014624239075183</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.307834528091448</v>
+        <v>0.2949934636237293</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5186745332569574</v>
+        <v>0.5134948985796391</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>39</v>
@@ -6116,19 +6116,19 @@
         <v>29831</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>22557</v>
+        <v>21439</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>39425</v>
+        <v>38218</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.3092069797578542</v>
+        <v>0.3092069797578541</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2338143105269986</v>
+        <v>0.2222200486930946</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4086585303848827</v>
+        <v>0.3961431568923088</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>74</v>
@@ -6137,19 +6137,19 @@
         <v>76738</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>61033</v>
+        <v>61946</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>92338</v>
+        <v>91978</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3597387148141601</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2861152784411502</v>
+        <v>0.2903960999039123</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4328672638784138</v>
+        <v>0.431179573503261</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>37159</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26346</v>
+        <v>27095</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49485</v>
+        <v>49436</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3180245112369873</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2254854128031241</v>
+        <v>0.2318955328086998</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4235236600224153</v>
+        <v>0.4231023990113287</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -6187,19 +6187,19 @@
         <v>24025</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16621</v>
+        <v>16812</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31732</v>
+        <v>32292</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2490300675574695</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1722864051894991</v>
+        <v>0.1742608164529294</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3289129561182809</v>
+        <v>0.3347199453787085</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>60</v>
@@ -6208,19 +6208,19 @@
         <v>61184</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>48587</v>
+        <v>49084</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>77673</v>
+        <v>76131</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2868208882565135</v>
+        <v>0.2868208882565134</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.227769649918791</v>
+        <v>0.230100667304706</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.364118689826177</v>
+        <v>0.356893306684923</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>7080</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2438</v>
+        <v>2940</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14401</v>
+        <v>15072</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06059201000626143</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02086705413367789</v>
+        <v>0.02516409876926897</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.123255053263849</v>
+        <v>0.1289962928209186</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -6258,19 +6258,19 @@
         <v>14694</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9027</v>
+        <v>8935</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22243</v>
+        <v>22390</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1523076980437195</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09356547709056787</v>
+        <v>0.09261347318006866</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2305555073311511</v>
+        <v>0.2320762157840552</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>22</v>
@@ -6279,19 +6279,19 @@
         <v>21774</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>14023</v>
+        <v>15246</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>31443</v>
+        <v>33401</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1020716074678929</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06573701085516158</v>
+        <v>0.07147155575809228</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1474014168014132</v>
+        <v>0.1565797394003397</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>22047</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13705</v>
+        <v>13878</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33808</v>
+        <v>33417</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1879168689064175</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1168093476668165</v>
+        <v>0.1182830187056087</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2881600149131097</v>
+        <v>0.284820741261345</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>37</v>
@@ -6404,19 +6404,19 @@
         <v>29281</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21261</v>
+        <v>21460</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>38042</v>
+        <v>38229</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2441883689475721</v>
+        <v>0.2441883689475722</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.177306070197908</v>
+        <v>0.17896480304223</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3172506174267873</v>
+        <v>0.3188121391439656</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>55</v>
@@ -6425,19 +6425,19 @@
         <v>51328</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>39460</v>
+        <v>39635</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>65203</v>
+        <v>66008</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2163593553971314</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1663323075255984</v>
+        <v>0.1670684523484092</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2748450204306014</v>
+        <v>0.2782357713851769</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>26170</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15746</v>
+        <v>16734</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38619</v>
+        <v>40120</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.223057533349524</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1342096754108321</v>
+        <v>0.1426262029803166</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3291604133323227</v>
+        <v>0.3419591338374156</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>25</v>
@@ -6475,19 +6475,19 @@
         <v>18045</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11942</v>
+        <v>12263</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25825</v>
+        <v>26402</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1504879715930229</v>
+        <v>0.150487971593023</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0995880489321212</v>
+        <v>0.1022686212092732</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2153663113680886</v>
+        <v>0.2201787599509227</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>44</v>
@@ -6496,19 +6496,19 @@
         <v>44215</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>31650</v>
+        <v>31805</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>58343</v>
+        <v>59387</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1863771751151293</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.133410169250229</v>
+        <v>0.1340642073550193</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2459287588552263</v>
+        <v>0.2503291206331019</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>42151</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>30749</v>
+        <v>31408</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>52716</v>
+        <v>53524</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.359266576332091</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2620875536398471</v>
+        <v>0.2677026269784482</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4493168729221303</v>
+        <v>0.4562045173643779</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>62</v>
@@ -6546,19 +6546,19 @@
         <v>42634</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>32961</v>
+        <v>34637</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>51695</v>
+        <v>53162</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3555496449139318</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2748756905662078</v>
+        <v>0.2888591568853488</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4311096419222102</v>
+        <v>0.4433495610236748</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>103</v>
@@ -6567,19 +6567,19 @@
         <v>84785</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>70552</v>
+        <v>70881</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>99406</v>
+        <v>98990</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3573878495952778</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.297393271211894</v>
+        <v>0.2987784968747473</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4190186034142805</v>
+        <v>0.4172624658702088</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>22718</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14832</v>
+        <v>14968</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34412</v>
+        <v>34076</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1936315008701404</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1264169766507636</v>
+        <v>0.1275773516910193</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.293301086258363</v>
+        <v>0.2904419063920083</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -6617,19 +6617,19 @@
         <v>24988</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16816</v>
+        <v>16540</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35808</v>
+        <v>34483</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2083849021260508</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1402347998999046</v>
+        <v>0.1379396071296547</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2986254749282995</v>
+        <v>0.28757257287532</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>47</v>
@@ -6638,19 +6638,19 @@
         <v>47705</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>35794</v>
+        <v>35320</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>60875</v>
+        <v>61786</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2010886224255711</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1508791462369705</v>
+        <v>0.1488813728377135</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2566004513833007</v>
+        <v>0.260441168930044</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>4239</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13502</v>
+        <v>13774</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03612752054182704</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.007267920549976927</v>
+        <v>0.007236825663756976</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.115080203517011</v>
+        <v>0.1173975680134425</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -6688,19 +6688,19 @@
         <v>4963</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9097</v>
+        <v>10352</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0413891124194223</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01757793111049613</v>
+        <v>0.01757374551958368</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07586871140181187</v>
+        <v>0.08632881627658839</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -6709,19 +6709,19 @@
         <v>9202</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4697</v>
+        <v>4348</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>18900</v>
+        <v>18691</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03878699746689041</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01980065629317488</v>
+        <v>0.01832906979520077</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0796686708130844</v>
+        <v>0.07878454061421253</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>85295</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>69852</v>
+        <v>67975</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>101228</v>
+        <v>100353</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4227862079038681</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3462418672528654</v>
+        <v>0.3369349244269516</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5017656168128232</v>
+        <v>0.4974256697731178</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>62</v>
@@ -6834,19 +6834,19 @@
         <v>49468</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39372</v>
+        <v>40260</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>59138</v>
+        <v>60050</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3809115064438231</v>
+        <v>0.380911506443823</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.303166986100548</v>
+        <v>0.3100105127317774</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4553724192731429</v>
+        <v>0.4623936761372056</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>129</v>
@@ -6855,19 +6855,19 @@
         <v>134763</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>114326</v>
+        <v>115689</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>153004</v>
+        <v>153499</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4063869939549319</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3447572721953328</v>
+        <v>0.3488674975368404</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4613939417824376</v>
+        <v>0.4628868060435996</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>26493</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>18029</v>
+        <v>17366</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>37687</v>
+        <v>37597</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1313202362870179</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08936427603232888</v>
+        <v>0.08607852604357266</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1868056926439909</v>
+        <v>0.1863603690810814</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>26</v>
@@ -6905,19 +6905,19 @@
         <v>15460</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>10253</v>
+        <v>10480</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>22493</v>
+        <v>21636</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1190444680442456</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07895260868049629</v>
+        <v>0.08069741911565537</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1732003824955366</v>
+        <v>0.1666035174755192</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>52</v>
@@ -6926,19 +6926,19 @@
         <v>41953</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>31823</v>
+        <v>31822</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>54937</v>
+        <v>55427</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1265127285847155</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09596418461111843</v>
+        <v>0.09596163481416614</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1656668746621794</v>
+        <v>0.1671430453789349</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>55720</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>42245</v>
+        <v>41111</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>72057</v>
+        <v>71927</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2761903616083425</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2093979955256601</v>
+        <v>0.2037756278004701</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3571699160278011</v>
+        <v>0.3565279723586717</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>52</v>
@@ -6976,19 +6976,19 @@
         <v>37631</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>28953</v>
+        <v>29340</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>47224</v>
+        <v>46818</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2897649783620393</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2229437284095177</v>
+        <v>0.2259250496491232</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3636293546869028</v>
+        <v>0.3605049213999003</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>100</v>
@@ -6997,19 +6997,19 @@
         <v>93351</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>76303</v>
+        <v>77315</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>112156</v>
+        <v>111112</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2815065319130095</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2300976261247925</v>
+        <v>0.2331497735086251</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3382143225812103</v>
+        <v>0.3350641310805625</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>19211</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11834</v>
+        <v>11900</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28733</v>
+        <v>30099</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.09522648496537241</v>
+        <v>0.09522648496537239</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05865771234368907</v>
+        <v>0.0589881231045143</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1424209978069932</v>
+        <v>0.1491923384333368</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>23</v>
@@ -7047,19 +7047,19 @@
         <v>18493</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12069</v>
+        <v>12057</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26664</v>
+        <v>27286</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1424006491173164</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09293365845842874</v>
+        <v>0.09284028615478368</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2053185508618228</v>
+        <v>0.2101023522515994</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>41</v>
@@ -7068,19 +7068,19 @@
         <v>37705</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>28332</v>
+        <v>27807</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>50572</v>
+        <v>50890</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1137011052925912</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08543741593336922</v>
+        <v>0.08385369574949039</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1525026388471011</v>
+        <v>0.1534624087237665</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>15025</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7442</v>
+        <v>7367</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>31795</v>
+        <v>31154</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.07447670923539911</v>
+        <v>0.07447670923539909</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03688954510522402</v>
+        <v>0.03651590758075891</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1576006920121513</v>
+        <v>0.1544217549260359</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -7118,19 +7118,19 @@
         <v>8815</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3911</v>
+        <v>4254</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>17128</v>
+        <v>17470</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06787839803257564</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0301182940726216</v>
+        <v>0.03275772837242433</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1318855295712711</v>
+        <v>0.134517670622318</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>18</v>
@@ -7139,19 +7139,19 @@
         <v>23841</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>13742</v>
+        <v>14929</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>39332</v>
+        <v>40563</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07189264025475189</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04143837903920333</v>
+        <v>0.04501784458416407</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1186070323694699</v>
+        <v>0.122321783789458</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>128306</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>108868</v>
+        <v>105898</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>151569</v>
+        <v>149523</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2703740133376826</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.229413313363449</v>
+        <v>0.223153640873686</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3193946735849778</v>
+        <v>0.3150833976611099</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>124</v>
@@ -7264,19 +7264,19 @@
         <v>100751</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>86257</v>
+        <v>86288</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>119007</v>
+        <v>117817</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2616914936685346</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2240442022833158</v>
+        <v>0.2241270121801035</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3091098411727147</v>
+        <v>0.306019373816222</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>228</v>
@@ -7285,19 +7285,19 @@
         <v>229057</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>201278</v>
+        <v>201262</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>257440</v>
+        <v>254428</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.266485050477394</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2341674122237451</v>
+        <v>0.2341484842625258</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2995063529610764</v>
+        <v>0.2960018487716982</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>68584</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>51787</v>
+        <v>52027</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>87822</v>
+        <v>87979</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1445244900069191</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1091287925644909</v>
+        <v>0.1096352838579743</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1850644240401509</v>
+        <v>0.1853956251324277</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>73</v>
@@ -7335,19 +7335,19 @@
         <v>53626</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>42823</v>
+        <v>42055</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>67835</v>
+        <v>66545</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1392893318642879</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1112303816161579</v>
+        <v>0.109233220213991</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1761962788764006</v>
+        <v>0.172845085313362</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>129</v>
@@ -7356,19 +7356,19 @@
         <v>122210</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>102695</v>
+        <v>103886</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>149801</v>
+        <v>145983</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1421796251105257</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1194753353963323</v>
+        <v>0.1208615143586579</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.174279041433077</v>
+        <v>0.169836772036922</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>157465</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>135724</v>
+        <v>134823</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>184787</v>
+        <v>181221</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3318190188704919</v>
+        <v>0.3318190188704918</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2860049817999971</v>
+        <v>0.2841077087255234</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3893937445874167</v>
+        <v>0.381880674590901</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>166</v>
@@ -7406,19 +7406,19 @@
         <v>120515</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>104969</v>
+        <v>103952</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>136294</v>
+        <v>136843</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3130282822846335</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2726493788645953</v>
+        <v>0.2700071765618294</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3540111313371461</v>
+        <v>0.3554378909372422</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>297</v>
@@ -7427,19 +7427,19 @@
         <v>277980</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>249349</v>
+        <v>252500</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>306691</v>
+        <v>307459</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.3234025131227957</v>
+        <v>0.3234025131227956</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2900935679867069</v>
+        <v>0.2937589581052277</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3568053575781841</v>
+        <v>0.3576990446006277</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>90895</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>72631</v>
+        <v>72081</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>111147</v>
+        <v>111779</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1915383484296533</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1530516414208215</v>
+        <v>0.1518923730402801</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2342148464783759</v>
+        <v>0.235547542997108</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>95</v>
@@ -7477,19 +7477,19 @@
         <v>78270</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>64058</v>
+        <v>64563</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>93093</v>
+        <v>95247</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2033008549532643</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1663846265255767</v>
+        <v>0.1676976746906072</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2418014748614731</v>
+        <v>0.2473949488108807</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>172</v>
@@ -7498,19 +7498,19 @@
         <v>169165</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>143950</v>
+        <v>145224</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>193957</v>
+        <v>192626</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1968068595021672</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1674717506550639</v>
+        <v>0.1689543501755774</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2256498464842771</v>
+        <v>0.2241013838712825</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>29301</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>17052</v>
+        <v>18834</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>44079</v>
+        <v>48682</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06174412935525319</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03593232314886237</v>
+        <v>0.03968795298234844</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09288554104168639</v>
+        <v>0.1025853326599441</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>36</v>
@@ -7551,16 +7551,16 @@
         <v>22299</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>44459</v>
+        <v>43507</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.08269003722927974</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05791908164504821</v>
+        <v>0.05792011223207793</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1154784492718495</v>
+        <v>0.1130068921631615</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>56</v>
@@ -7569,19 +7569,19 @@
         <v>61136</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>46124</v>
+        <v>46112</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>81204</v>
+        <v>79760</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.07112595178711753</v>
+        <v>0.07112595178711754</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05366134085790137</v>
+        <v>0.05364669243757688</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0944727756762279</v>
+        <v>0.09279259333387369</v>
       </c>
     </row>
     <row r="33">
